--- a/result1_1.xlsx
+++ b/result1_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2024\C题乡村农作物种植策略优化\2024-8-28-1 C题(蔡志杰)\附件3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\flas\source\course\modelling\agristrat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0473C39E-7F64-4431-9D4D-8245FCF9C3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" tabRatio="537"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="537" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="2029" sheetId="11" r:id="rId6"/>
     <sheet name="2030" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -456,7 +457,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -933,20 +934,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AS87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM52" sqref="AM52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.21875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1131,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -1224,7 +1227,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1320,7 +1323,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -1416,7 +1419,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -1512,7 +1515,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -1608,7 +1611,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -1704,7 +1707,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -1800,7 +1803,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -1896,7 +1899,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -1992,7 +1995,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -2088,7 +2091,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -2184,7 +2187,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -2280,7 +2283,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -2376,7 +2379,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -2472,7 +2475,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -2568,7 +2571,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -2664,7 +2667,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -2760,7 +2763,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -2856,7 +2859,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -2952,7 +2955,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -3048,7 +3051,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -3144,7 +3147,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -3240,7 +3243,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -3336,7 +3339,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -3432,7 +3435,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -3528,7 +3531,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -3624,7 +3627,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -3721,7 +3724,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -3815,7 +3818,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -3909,7 +3912,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -4003,7 +4006,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -4097,7 +4100,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -4191,7 +4194,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -4285,7 +4288,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -4379,7 +4382,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -4473,7 +4476,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -4567,7 +4570,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -4661,7 +4664,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -4755,7 +4758,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -4849,7 +4852,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -4943,7 +4946,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -5118,17 +5121,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.21875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5310,7 +5313,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -5406,7 +5409,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -5502,7 +5505,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -5598,7 +5601,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -5694,7 +5697,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -5790,7 +5793,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -5886,7 +5889,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -5982,7 +5985,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -6078,7 +6081,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -6174,7 +6177,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -6270,7 +6273,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -6366,7 +6369,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -6462,7 +6465,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -6558,7 +6561,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -6654,7 +6657,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -6750,7 +6753,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -6846,7 +6849,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -6942,7 +6945,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -7038,7 +7041,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -7134,7 +7137,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -7230,7 +7233,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -7326,7 +7329,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -7422,7 +7425,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -7518,7 +7521,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -7614,7 +7617,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -7710,7 +7713,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -7806,7 +7809,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -7903,7 +7906,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -7997,7 +8000,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -8091,7 +8094,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -8185,7 +8188,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -8279,7 +8282,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -8373,7 +8376,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -8467,7 +8470,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -8561,7 +8564,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -8655,7 +8658,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -8749,7 +8752,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -8843,7 +8846,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -8937,7 +8940,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -9031,7 +9034,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -9125,7 +9128,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -9296,17 +9299,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.21875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -9488,7 +9491,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -9584,7 +9587,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -9680,7 +9683,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -9776,7 +9779,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -9872,7 +9875,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -9968,7 +9971,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10064,7 +10067,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -10160,7 +10163,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -10256,7 +10259,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -10352,7 +10355,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -10448,7 +10451,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -10544,7 +10547,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -10640,7 +10643,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -10736,7 +10739,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -10832,7 +10835,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -10928,7 +10931,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -11024,7 +11027,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -11120,7 +11123,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -11216,7 +11219,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -11312,7 +11315,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -11408,7 +11411,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -11504,7 +11507,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -11600,7 +11603,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -11696,7 +11699,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -11792,7 +11795,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -11888,7 +11891,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -11984,7 +11987,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -12081,7 +12084,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -12175,7 +12178,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -12269,7 +12272,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -12363,7 +12366,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -12457,7 +12460,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -12551,7 +12554,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -12645,7 +12648,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -12739,7 +12742,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -12833,7 +12836,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -12927,7 +12930,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -13021,7 +13024,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -13115,7 +13118,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -13209,7 +13212,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -13303,7 +13306,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -13474,17 +13477,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.21875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -13666,7 +13669,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -13762,7 +13765,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -13858,7 +13861,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -13954,7 +13957,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -14050,7 +14053,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -14146,7 +14149,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -14242,7 +14245,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -14338,7 +14341,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -14434,7 +14437,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -14530,7 +14533,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -14626,7 +14629,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -14722,7 +14725,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -14818,7 +14821,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -14914,7 +14917,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -15010,7 +15013,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -15106,7 +15109,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -15202,7 +15205,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -15298,7 +15301,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -15394,7 +15397,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -15490,7 +15493,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -15586,7 +15589,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -15682,7 +15685,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -15778,7 +15781,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -15874,7 +15877,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -15970,7 +15973,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -16066,7 +16069,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -16162,7 +16165,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -16259,7 +16262,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -16353,7 +16356,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -16447,7 +16450,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -16541,7 +16544,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -16635,7 +16638,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -16729,7 +16732,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -16823,7 +16826,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -16917,7 +16920,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -17011,7 +17014,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -17105,7 +17108,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -17199,7 +17202,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -17293,7 +17296,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -17387,7 +17390,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -17481,7 +17484,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -17652,17 +17655,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.21875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -17844,7 +17847,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -17940,7 +17943,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -18036,7 +18039,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -18132,7 +18135,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -18228,7 +18231,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -18324,7 +18327,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -18420,7 +18423,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -18516,7 +18519,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -18612,7 +18615,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -18708,7 +18711,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -18804,7 +18807,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -18900,7 +18903,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -18996,7 +18999,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -19092,7 +19095,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -19188,7 +19191,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -19284,7 +19287,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -19380,7 +19383,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -19476,7 +19479,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -19572,7 +19575,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -19668,7 +19671,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -19764,7 +19767,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -19860,7 +19863,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -19956,7 +19959,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -20052,7 +20055,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -20148,7 +20151,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -20244,7 +20247,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -20340,7 +20343,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -20437,7 +20440,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -20531,7 +20534,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -20625,7 +20628,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -20719,7 +20722,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -20813,7 +20816,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -20907,7 +20910,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -21001,7 +21004,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -21095,7 +21098,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -21189,7 +21192,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -21283,7 +21286,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -21377,7 +21380,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -21471,7 +21474,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -21565,7 +21568,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -21659,7 +21662,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -21830,17 +21833,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.21875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -22022,7 +22025,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -22118,7 +22121,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -22214,7 +22217,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -22310,7 +22313,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -22406,7 +22409,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -22502,7 +22505,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -22598,7 +22601,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -22694,7 +22697,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -22790,7 +22793,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -22886,7 +22889,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -22982,7 +22985,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -23078,7 +23081,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -23174,7 +23177,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -23270,7 +23273,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -23366,7 +23369,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -23462,7 +23465,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -23558,7 +23561,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -23654,7 +23657,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -23750,7 +23753,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -23846,7 +23849,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -23942,7 +23945,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -24038,7 +24041,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -24134,7 +24137,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -24230,7 +24233,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -24326,7 +24329,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -24422,7 +24425,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -24518,7 +24521,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -24615,7 +24618,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -24709,7 +24712,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -24803,7 +24806,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -24897,7 +24900,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -24991,7 +24994,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -25085,7 +25088,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -25179,7 +25182,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -25273,7 +25276,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -25367,7 +25370,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -25461,7 +25464,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -25555,7 +25558,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -25649,7 +25652,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -25743,7 +25746,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -25837,7 +25840,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -26008,17 +26011,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.21875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -26200,7 +26203,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -26296,7 +26299,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -26392,7 +26395,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -26488,7 +26491,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -26584,7 +26587,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -26680,7 +26683,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -26776,7 +26779,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -26872,7 +26875,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -26968,7 +26971,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -27064,7 +27067,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -27160,7 +27163,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -27256,7 +27259,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -27352,7 +27355,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -27448,7 +27451,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -27544,7 +27547,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -27640,7 +27643,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -27736,7 +27739,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -27832,7 +27835,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -27928,7 +27931,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -28024,7 +28027,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -28120,7 +28123,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -28216,7 +28219,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -28312,7 +28315,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -28408,7 +28411,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -28504,7 +28507,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -28600,7 +28603,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -28696,7 +28699,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -28793,7 +28796,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -28887,7 +28890,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -28981,7 +28984,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -29075,7 +29078,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -29169,7 +29172,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -29263,7 +29266,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -29357,7 +29360,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -29451,7 +29454,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -29545,7 +29548,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -29639,7 +29642,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -29733,7 +29736,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -29827,7 +29830,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -29921,7 +29924,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -30015,7 +30018,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
